--- a/biology/Botanique/Maurice-Augustin_Gomont/Maurice-Augustin_Gomont.xlsx
+++ b/biology/Botanique/Maurice-Augustin_Gomont/Maurice-Augustin_Gomont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice-Augustin Gomont né le 11 mai 1839 à Rouen où il est mort le 22 juin 1909[1] est un botaniste et un peintre français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice-Augustin Gomont né le 11 mai 1839 à Rouen où il est mort le 22 juin 1909 est un botaniste et un peintre français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri-Augustin Gomont est historien, homme de lettres et auteur de poésies[2]. Ses parents, Henri Augustin Gomont (1815-1848) et Charlotte Zulmée de Fréville Delorme (1818-1867) se marient à Rouen le 14 juin 1838[3]. 
-Il épouse le 21 novembre 1864 à Paris, Marie Berthe Parrod[4], dont il a un fils, Frédéric Gomont (1865-1895)[réf. nécessaire].
-Veuf, il épouse en secondes noces, le 19 avril 1869 à Versailles, Aimée Zéphirine Gabrielle Renaud d'Avêne des Meloizes[5], descendante du comte Dufort de Cheverny, dont il a deux enfants, Marguerite et Henri[réf. nécessaire]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri-Augustin Gomont est historien, homme de lettres et auteur de poésies. Ses parents, Henri Augustin Gomont (1815-1848) et Charlotte Zulmée de Fréville Delorme (1818-1867) se marient à Rouen le 14 juin 1838. 
+Il épouse le 21 novembre 1864 à Paris, Marie Berthe Parrod, dont il a un fils, Frédéric Gomont (1865-1895)[réf. nécessaire].
+Veuf, il épouse en secondes noces, le 19 avril 1869 à Versailles, Aimée Zéphirine Gabrielle Renaud d'Avêne des Meloizes, descendante du comte Dufort de Cheverny, dont il a deux enfants, Marguerite et Henri[réf. nécessaire]. 
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève au collège Bonaparte, il est notamment condisciple de Sully Prudhomme et de Sadi Carnot[réf. nécessaire]. 
-Reçu au concours de l'École impériale forestière en 1858, il commence sa carrière de Garde général des forêts. Il se fait connaître notamment par une étude sur les oscillaires[6].
+Reçu au concours de l'École impériale forestière en 1858, il commence sa carrière de Garde général des forêts. Il se fait connaître notamment par une étude sur les oscillaires.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Carrière artistique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève d'Alexandre Desgoffe, d'Antoine Chazal et de William Bouguereau, Maurice-Augustin Gomont expose au Salon des artistes  français. Sa carrière scientifique le conduit à fermer son atelier en 1896. 
 </t>
@@ -607,7 +625,9 @@
           <t>Salons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1870 :  : Un cabinet de naturaliste (no 1216) ; Chasse au bois (no 1271).
 1873 : Fleurs et objets de curiosité (no 656).
@@ -618,7 +638,7 @@
 1881 : La Ragazinna.
 1882 : Portrait d'enfant.
 1884 : Fleurs et bibelots (no 1071) ; Un coin de table (no 1072).
-Salon des indépendants 1879-1907[pas clair] : Portrait de M. H. G  [7].</t>
+Salon des indépendants 1879-1907[pas clair] : Portrait de M. H. G  .</t>
         </is>
       </c>
     </row>
@@ -646,7 +666,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Monographie des Oscillariées, Paris, Masson, 1893.</t>
         </is>
